--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/B2m-Gm11127.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/B2m-Gm11127.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1890.363606666667</v>
+        <v>751.9458006666667</v>
       </c>
       <c r="H2">
-        <v>5671.090819999999</v>
+        <v>2255.837402</v>
       </c>
       <c r="I2">
-        <v>0.7325920767107167</v>
+        <v>0.5214751584887579</v>
       </c>
       <c r="J2">
-        <v>0.7325920767107167</v>
+        <v>0.5214751584887579</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.004153</v>
+        <v>0.05713433333333334</v>
       </c>
       <c r="N2">
-        <v>0.012459</v>
+        <v>0.171403</v>
       </c>
       <c r="O2">
-        <v>0.09767015255326821</v>
+        <v>0.5982527416528799</v>
       </c>
       <c r="P2">
-        <v>0.09767015255326821</v>
+        <v>0.5982527416528799</v>
       </c>
       <c r="Q2">
-        <v>7.850680058486666</v>
+        <v>42.96192202388956</v>
       </c>
       <c r="R2">
-        <v>70.65612052637999</v>
+        <v>386.657298215006</v>
       </c>
       <c r="S2">
-        <v>0.07155237989165127</v>
+        <v>0.3119739432697695</v>
       </c>
       <c r="T2">
-        <v>0.07155237989165127</v>
+        <v>0.3119739432697695</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1890.363606666667</v>
+        <v>751.9458006666667</v>
       </c>
       <c r="H3">
-        <v>5671.090819999999</v>
+        <v>2255.837402</v>
       </c>
       <c r="I3">
-        <v>0.7325920767107167</v>
+        <v>0.5214751584887579</v>
       </c>
       <c r="J3">
-        <v>0.7325920767107167</v>
+        <v>0.5214751584887579</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.066195</v>
       </c>
       <c r="O3">
-        <v>0.5189241310108026</v>
+        <v>0.2310422818370296</v>
       </c>
       <c r="P3">
-        <v>0.5189241310108026</v>
+        <v>0.2310422818370296</v>
       </c>
       <c r="Q3">
-        <v>41.7108729811</v>
+        <v>16.59168409171</v>
       </c>
       <c r="R3">
-        <v>375.3978568299</v>
+        <v>149.32515682539</v>
       </c>
       <c r="S3">
-        <v>0.3801597067925079</v>
+        <v>0.1204828105385693</v>
       </c>
       <c r="T3">
-        <v>0.3801597067925079</v>
+        <v>0.1204828105385693</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1890.363606666667</v>
+        <v>751.9458006666667</v>
       </c>
       <c r="H4">
-        <v>5671.090819999999</v>
+        <v>2255.837402</v>
       </c>
       <c r="I4">
-        <v>0.7325920767107167</v>
+        <v>0.5214751584887579</v>
       </c>
       <c r="J4">
-        <v>0.7325920767107167</v>
+        <v>0.5214751584887579</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>0.048908</v>
       </c>
       <c r="O4">
-        <v>0.3834057164359292</v>
+        <v>0.1707049765100905</v>
       </c>
       <c r="P4">
-        <v>0.3834057164359292</v>
+        <v>0.1707049765100906</v>
       </c>
       <c r="Q4">
-        <v>30.81796775828444</v>
+        <v>12.25872173966845</v>
       </c>
       <c r="R4">
-        <v>277.36170982456</v>
+        <v>110.328495657016</v>
       </c>
       <c r="S4">
-        <v>0.2808799900265575</v>
+        <v>0.08901840468041916</v>
       </c>
       <c r="T4">
-        <v>0.2808799900265575</v>
+        <v>0.08901840468041917</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1612.432129</v>
       </c>
       <c r="I5">
-        <v>0.2082941429492382</v>
+        <v>0.3727410935190445</v>
       </c>
       <c r="J5">
-        <v>0.2082941429492382</v>
+        <v>0.3727410935190445</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.004153</v>
+        <v>0.05713433333333334</v>
       </c>
       <c r="N5">
-        <v>0.012459</v>
+        <v>0.171403</v>
       </c>
       <c r="O5">
-        <v>0.09767015255326821</v>
+        <v>0.5982527416528799</v>
       </c>
       <c r="P5">
-        <v>0.09767015255326821</v>
+        <v>0.5982527416528799</v>
       </c>
       <c r="Q5">
-        <v>2.232143543912333</v>
+        <v>30.70841157855412</v>
       </c>
       <c r="R5">
-        <v>20.089291895211</v>
+        <v>276.375704206987</v>
       </c>
       <c r="S5">
-        <v>0.02034412071780435</v>
+        <v>0.2229933811244609</v>
       </c>
       <c r="T5">
-        <v>0.02034412071780435</v>
+        <v>0.2229933811244609</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1612.432129</v>
       </c>
       <c r="I6">
-        <v>0.2082941429492382</v>
+        <v>0.3727410935190445</v>
       </c>
       <c r="J6">
-        <v>0.2082941429492382</v>
+        <v>0.3727410935190445</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.066195</v>
       </c>
       <c r="O6">
-        <v>0.5189241310108026</v>
+        <v>0.2310422818370296</v>
       </c>
       <c r="P6">
-        <v>0.5189241310108026</v>
+        <v>0.2310422818370296</v>
       </c>
       <c r="Q6">
         <v>11.859438308795</v>
@@ -818,10 +818,10 @@
         <v>106.734944779155</v>
       </c>
       <c r="S6">
-        <v>0.1080888571245733</v>
+        <v>0.08611895278106968</v>
       </c>
       <c r="T6">
-        <v>0.1080888571245733</v>
+        <v>0.08611895278106969</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1612.432129</v>
       </c>
       <c r="I7">
-        <v>0.2082941429492382</v>
+        <v>0.3727410935190445</v>
       </c>
       <c r="J7">
-        <v>0.2082941429492382</v>
+        <v>0.3727410935190445</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>0.048908</v>
       </c>
       <c r="O7">
-        <v>0.3834057164359292</v>
+        <v>0.1707049765100905</v>
       </c>
       <c r="P7">
-        <v>0.3834057164359292</v>
+        <v>0.1707049765100906</v>
       </c>
       <c r="Q7">
         <v>8.762314507236889</v>
@@ -880,10 +880,10 @@
         <v>78.86083056513201</v>
       </c>
       <c r="S7">
-        <v>0.0798611651068605</v>
+        <v>0.06362875961351395</v>
       </c>
       <c r="T7">
-        <v>0.07986116510686052</v>
+        <v>0.06362875961351395</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>457.607484</v>
       </c>
       <c r="I8">
-        <v>0.05911378034004507</v>
+        <v>0.1057837479921976</v>
       </c>
       <c r="J8">
-        <v>0.05911378034004508</v>
+        <v>0.1057837479921976</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.004153</v>
+        <v>0.05713433333333334</v>
       </c>
       <c r="N8">
-        <v>0.012459</v>
+        <v>0.171403</v>
       </c>
       <c r="O8">
-        <v>0.09767015255326821</v>
+        <v>0.5982527416528799</v>
       </c>
       <c r="P8">
-        <v>0.09767015255326821</v>
+        <v>0.5982527416528799</v>
       </c>
       <c r="Q8">
-        <v>0.633481293684</v>
+        <v>8.715032842228</v>
       </c>
       <c r="R8">
-        <v>5.701331643156</v>
+        <v>78.435295580052</v>
       </c>
       <c r="S8">
-        <v>0.005773651943812589</v>
+        <v>0.06328541725864954</v>
       </c>
       <c r="T8">
-        <v>0.00577365194381259</v>
+        <v>0.06328541725864954</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>457.607484</v>
       </c>
       <c r="I9">
-        <v>0.05911378034004507</v>
+        <v>0.1057837479921976</v>
       </c>
       <c r="J9">
-        <v>0.05911378034004508</v>
+        <v>0.1057837479921976</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,10 +992,10 @@
         <v>0.066195</v>
       </c>
       <c r="O9">
-        <v>0.5189241310108026</v>
+        <v>0.2310422818370296</v>
       </c>
       <c r="P9">
-        <v>0.5189241310108026</v>
+        <v>0.2310422818370296</v>
       </c>
       <c r="Q9">
         <v>3.36570304482</v>
@@ -1004,10 +1004,10 @@
         <v>30.29132740338</v>
       </c>
       <c r="S9">
-        <v>0.03067556709372135</v>
+        <v>0.02444051851739063</v>
       </c>
       <c r="T9">
-        <v>0.03067556709372136</v>
+        <v>0.02444051851739064</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>457.607484</v>
       </c>
       <c r="I10">
-        <v>0.05911378034004507</v>
+        <v>0.1057837479921976</v>
       </c>
       <c r="J10">
-        <v>0.05911378034004508</v>
+        <v>0.1057837479921976</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,10 +1054,10 @@
         <v>0.048908</v>
       </c>
       <c r="O10">
-        <v>0.3834057164359292</v>
+        <v>0.1707049765100905</v>
       </c>
       <c r="P10">
-        <v>0.3834057164359292</v>
+        <v>0.1707049765100906</v>
       </c>
       <c r="Q10">
         <v>2.486740758608</v>
@@ -1066,10 +1066,10 @@
         <v>22.380666827472</v>
       </c>
       <c r="S10">
-        <v>0.02266456130251113</v>
+        <v>0.01805781221615743</v>
       </c>
       <c r="T10">
-        <v>0.02266456130251113</v>
+        <v>0.01805781221615743</v>
       </c>
     </row>
   </sheetData>
